--- a/fhir/ig/urgencia/StructureDefinition-BundleCategorizacion.xlsx
+++ b/fhir/ig/urgencia/StructureDefinition-BundleCategorizacion.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-13T10:10:51-03:00</t>
+    <t>2024-12-16T14:50:05-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -992,31 +992,31 @@
     <t>Bundle.entry:encuentro.response.outcome</t>
   </si>
   <si>
-    <t>Bundle.entry:profesionalCategorizador</t>
-  </si>
-  <si>
-    <t>profesionalCategorizador</t>
+    <t>Bundle.entry:categorizador</t>
+  </si>
+  <si>
+    <t>categorizador</t>
   </si>
   <si>
     <t>Profesional que categoriza</t>
   </si>
   <si>
-    <t>Bundle.entry:profesionalCategorizador.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:profesionalCategorizador.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:profesionalCategorizador.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:profesionalCategorizador.link</t>
-  </si>
-  <si>
-    <t>Bundle.entry:profesionalCategorizador.fullUrl</t>
-  </si>
-  <si>
-    <t>Bundle.entry:profesionalCategorizador.resource</t>
+    <t>Bundle.entry:categorizador.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:categorizador.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:categorizador.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:categorizador.link</t>
+  </si>
+  <si>
+    <t>Bundle.entry:categorizador.fullUrl</t>
+  </si>
+  <si>
+    <t>Bundle.entry:categorizador.resource</t>
   </si>
   <si>
     <t xml:space="preserve">Practitioner {https://interoperabilidad.minsal.cl/fhir/ig/urgencia/StructureDefinition/PrestadorProfesional}
@@ -1035,61 +1035,61 @@
     <t>Role</t>
   </si>
   <si>
-    <t>Bundle.entry:profesionalCategorizador.search</t>
-  </si>
-  <si>
-    <t>Bundle.entry:profesionalCategorizador.search.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:profesionalCategorizador.search.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:profesionalCategorizador.search.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:profesionalCategorizador.search.mode</t>
-  </si>
-  <si>
-    <t>Bundle.entry:profesionalCategorizador.search.score</t>
-  </si>
-  <si>
-    <t>Bundle.entry:profesionalCategorizador.request</t>
+    <t>Bundle.entry:categorizador.search</t>
+  </si>
+  <si>
+    <t>Bundle.entry:categorizador.search.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:categorizador.search.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:categorizador.search.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:categorizador.search.mode</t>
+  </si>
+  <si>
+    <t>Bundle.entry:categorizador.search.score</t>
+  </si>
+  <si>
+    <t>Bundle.entry:categorizador.request</t>
   </si>
   <si>
     <t>Petición de creación de recurso</t>
   </si>
   <si>
-    <t>Bundle.entry:profesionalCategorizador.request.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:profesionalCategorizador.request.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:profesionalCategorizador.request.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:profesionalCategorizador.request.method</t>
+    <t>Bundle.entry:categorizador.request.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:categorizador.request.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:categorizador.request.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:categorizador.request.method</t>
   </si>
   <si>
     <t>POST</t>
   </si>
   <si>
-    <t>Bundle.entry:profesionalCategorizador.request.url</t>
+    <t>Bundle.entry:categorizador.request.url</t>
   </si>
   <si>
     <t>Practitioner</t>
   </si>
   <si>
-    <t>Bundle.entry:profesionalCategorizador.request.ifNoneMatch</t>
-  </si>
-  <si>
-    <t>Bundle.entry:profesionalCategorizador.request.ifModifiedSince</t>
-  </si>
-  <si>
-    <t>Bundle.entry:profesionalCategorizador.request.ifMatch</t>
-  </si>
-  <si>
-    <t>Bundle.entry:profesionalCategorizador.request.ifNoneExist</t>
+    <t>Bundle.entry:categorizador.request.ifNoneMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:categorizador.request.ifModifiedSince</t>
+  </si>
+  <si>
+    <t>Bundle.entry:categorizador.request.ifMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:categorizador.request.ifNoneExist</t>
   </si>
   <si>
     <t>Verificar existencia de profesional</t>
@@ -1098,31 +1098,31 @@
     <t>Se debe verificar que no exista un profesional con el mismo identificador</t>
   </si>
   <si>
-    <t>Bundle.entry:profesionalCategorizador.response</t>
-  </si>
-  <si>
-    <t>Bundle.entry:profesionalCategorizador.response.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:profesionalCategorizador.response.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:profesionalCategorizador.response.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:profesionalCategorizador.response.status</t>
-  </si>
-  <si>
-    <t>Bundle.entry:profesionalCategorizador.response.location</t>
-  </si>
-  <si>
-    <t>Bundle.entry:profesionalCategorizador.response.etag</t>
-  </si>
-  <si>
-    <t>Bundle.entry:profesionalCategorizador.response.lastModified</t>
-  </si>
-  <si>
-    <t>Bundle.entry:profesionalCategorizador.response.outcome</t>
+    <t>Bundle.entry:categorizador.response</t>
+  </si>
+  <si>
+    <t>Bundle.entry:categorizador.response.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:categorizador.response.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:categorizador.response.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:categorizador.response.status</t>
+  </si>
+  <si>
+    <t>Bundle.entry:categorizador.response.location</t>
+  </si>
+  <si>
+    <t>Bundle.entry:categorizador.response.etag</t>
+  </si>
+  <si>
+    <t>Bundle.entry:categorizador.response.lastModified</t>
+  </si>
+  <si>
+    <t>Bundle.entry:categorizador.response.outcome</t>
   </si>
   <si>
     <t>Bundle.entry:signosVitales</t>
@@ -1614,9 +1614,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="60.84765625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="50.5234375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="37.640625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="23.671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="13.34375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="24.1953125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>

--- a/fhir/ig/urgencia/StructureDefinition-BundleCategorizacion.xlsx
+++ b/fhir/ig/urgencia/StructureDefinition-BundleCategorizacion.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T14:50:05-03:00</t>
+    <t>2024-12-17T10:22:12-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
